--- a/experiments/capital/bert-base-cased_15/67/word_level_error_type_summary.xlsx
+++ b/experiments/capital/bert-base-cased_15/67/word_level_error_type_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,27 +447,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -477,6 +477,26 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_S_as_B</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
     </row>
